--- a/www/ig/fhir/mesures/ValueSet-method-glucose-vs.xlsx
+++ b/www/ig/fhir/mesures/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T10:14:44+02:00</t>
+    <t>2023-04-26T16:40:33+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/mesures/ValueSet-method-glucose-vs.xlsx
+++ b/www/ig/fhir/mesures/ValueSet-method-glucose-vs.xlsx
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T16:40:33+02:00</t>
+    <t>2023-04-26T19:41:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/www/ig/fhir/mesures/ValueSet-method-glucose-vs.xlsx
+++ b/www/ig/fhir/mesures/ValueSet-method-glucose-vs.xlsx
@@ -7,14 +7,14 @@
   </bookViews>
   <sheets>
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
-    <sheet name="Include ValueSets" r:id="rId4" sheetId="2"/>
-    <sheet name="Include ValueSets 2" r:id="rId5" sheetId="3"/>
+    <sheet name="Include #0" r:id="rId4" sheetId="2"/>
+    <sheet name="Include #1" r:id="rId5" sheetId="3"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="33">
   <si>
     <t>Property</t>
   </si>
@@ -31,7 +31,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.1</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -58,7 +58,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-04-26T16:40:33+02:00</t>
+    <t>2024-10-02T08:41:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -70,7 +70,13 @@
     <t>Contact</t>
   </si>
   <si>
-    <t>No display for ContactDetail</t>
+    <t>ANS (https://esante.gouv.fr)</t>
+  </si>
+  <si>
+    <t>Jurisdiction</t>
+  </si>
+  <si>
+    <t>FRANCE</t>
   </si>
   <si>
     <t>Description</t>
@@ -91,13 +97,22 @@
     <t>BooleanType[null]</t>
   </si>
   <si>
-    <t>ValueSet URL</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J155-MethodGlucoseSanguin-ENS/FHIR/JDV-J155-MethodGlucoseSanguin-ENS</t>
-  </si>
-  <si>
-    <t>https://mos.esante.gouv.fr/NOS/JDV_J156-MethodGlucoseInterstitiel-ENS/FHIR/JDV-J156-MethodGlucoseInterstitiel-ENS</t>
+    <t>Codes</t>
+  </si>
+  <si>
+    <t>All codes</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>System URI</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R312-LPP/FHIR/TRE-R312-LPP</t>
+  </si>
+  <si>
+    <t>https://mos.esante.gouv.fr/NOS/TRE_R307-NCIT/FHIR/TRE-R307-NCIT</t>
   </si>
 </sst>
 </file>
@@ -219,10 +234,10 @@
   </cellStyleXfs>
   <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyAlignment="true" applyFont="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="true" applyAlignment="true">
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
@@ -231,7 +246,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:B14"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -331,20 +346,28 @@
       <c r="A12" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B12" s="2"/>
+      <c r="B12" t="s" s="2">
+        <v>22</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B13" s="2"/>
     </row>
     <row r="14">
       <c r="A14" t="s" s="2">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s" s="2">
         <v>24</v>
+      </c>
+      <c r="B14" s="2"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>25</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
@@ -354,7 +377,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -366,12 +389,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>26</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -381,7 +420,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -393,12 +432,28 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
-        <v>27</v>
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>30</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
